--- a/maven指南.xlsx
+++ b/maven指南.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F8D243-4680-446A-BC4C-C710FB323FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70327B7F-D35C-49B8-893A-E5FD797FD1BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nexus" sheetId="1" r:id="rId1"/>
+    <sheet name="nexus安装（Docker）" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,9 +19,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>拉取镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.112.142.231:8081/nexus/#welcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> docker run -d -p 8081:8081 --name nexus docker.io/sonatype/nexus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,13 +57,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,14 +89,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -367,16 +406,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F21"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" location="welcome" xr:uid="{58C00A5F-AD7A-4B45-B44C-2C43E5D36C24}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/maven指南.xlsx
+++ b/maven指南.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70327B7F-D35C-49B8-893A-E5FD797FD1BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA857C7-A154-43E1-8D8A-57A5C38FAE91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nexus安装（Docker）" sheetId="1" r:id="rId1"/>
+    <sheet name="配置" sheetId="2" r:id="rId2"/>
+    <sheet name="Maven引用" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>拉取镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +37,30 @@
   </si>
   <si>
     <t xml:space="preserve"> docker run -d -p 8081:8081 --name nexus docker.io/sonatype/nexus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认登录密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin / admin123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改下载配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pom.xml文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,6 +167,506 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>522867</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>46752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B746C5-3F60-467B-AD1B-4D527276E4AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="847725"/>
+          <a:ext cx="8066667" cy="6980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284857</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>113788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD24CDB-3B60-4C8E-9C0A-6A07A4E9A7E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8505825"/>
+          <a:ext cx="7142857" cy="4095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>493781</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>85398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5558282-D3B6-4155-825C-A8A63E449F18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13754100"/>
+          <a:ext cx="12152381" cy="2619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA860C2-F09A-4AFC-8FBE-9E7E91FFCBE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="981075"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B4A448-9252-4673-A887-FF2993F79E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="600075"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3073" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1EF2F6-C463-4018-B288-3BE7C89306F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="171450" y="923925"/>
+          <a:ext cx="7391400" cy="3981450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>    &lt;repositories&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>        &lt;repository&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>            &lt;id&gt;public&lt;/id&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>            &lt;name&gt;public&lt;/name&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>            &lt;url&gt;http://193.112.76.194:8081/nexus/content/groups/public/&lt;/url&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>            &lt;releases&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>                &lt;enabled&gt;true&lt;/enabled&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>            &lt;/releases&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>            &lt;snapshots&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>                &lt;enabled&gt;true&lt;/enabled&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>            &lt;/snapshots&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>        &lt;/repository&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+            </a:rPr>
+            <a:t>    &lt;/repositories&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,4 +968,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55014EDD-405E-410F-B6CB-E67159A5EDDE}">
+  <dimension ref="A1:A74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D048E8C-0AFB-4C5F-B83B-2BE8573B7BE1}">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/maven指南.xlsx
+++ b/maven指南.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA857C7-A154-43E1-8D8A-57A5C38FAE91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4118846A-C1D1-42A0-BA8D-187922EABE27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>拉取镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,7 +60,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pom.xml文件</t>
+    <t>方法一：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法二：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pom.xml文件  （项目的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting文件 （Maven的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注明账号密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注明仓库地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有多个mirror则多个镜像都会同时储存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,6 +690,664 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9DF99E-7B27-4CF0-ACF4-865740B29F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8443912" y="4695825"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7120283" cy="12664877"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D85CA5-FF17-4BCB-B7D2-D7496FB2894A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="5943600"/>
+          <a:ext cx="7120283" cy="12664877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;settings xmlns="http://maven.apache.org/SETTINGS/1.0.0"   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>          xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>          xsi:schemaLocation="http://maven.apache.org/SETTINGS/1.0.0 http://maven.apache.org/xsd/settings-1.0.0.xsd"&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  &lt;pluginGroups&gt;&lt;/pluginGroups&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  &lt;proxies&gt;&lt;/proxies&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> &lt;servers&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;server&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;id&gt;nexus-releases&lt;/id&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;username&gt;admin&lt;/username&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;password&gt;admin123&lt;/password&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    &lt;/server&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    &lt;server&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;id&gt;nexus-snapshots&lt;/id&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;username&gt;admin&lt;/username&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;password&gt;admin123&lt;/password&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    &lt;/server&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  &lt;/servers&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  &lt;mirrors&gt;   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    &lt;mirror&gt;   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;id&gt;nexus-releases&lt;/id&gt;   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;mirrorOf&gt;*&lt;/mirrorOf&gt;   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;url&gt;http://47.112.142.231:8081/nexus/content/repositories/central/&lt;/url&gt;   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    &lt;/mirror&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    &lt;mirror&gt;   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;id&gt;nexus-snapshots&lt;/id&gt;   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;mirrorOf&gt;*&lt;/mirrorOf&gt;   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      &lt;url&gt;http://47.112.142.231:8081/nexus/content/groups/public/&lt;/url&gt;   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    &lt;/mirror&gt;   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  &lt;/mirrors&gt;   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  &lt;profiles&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   &lt;profile&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      &lt;id&gt;nexus&lt;/id&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      &lt;repositories&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        &lt;repository&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>          &lt;id&gt;nexus-releases&lt;/id&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>          &lt;url&gt;http://nexus-releases&lt;/url&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>          &lt;releases&gt;&lt;enabled&gt;true&lt;/enabled&gt;&lt;/releases&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>          &lt;snapshots&gt;&lt;enabled&gt;true&lt;/enabled&gt;&lt;/snapshots&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        &lt;/repository&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        &lt;repository&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>          &lt;id&gt;nexus-snapshots&lt;/id&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>          &lt;url&gt;http://nexus-snapshots&lt;/url&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>          &lt;releases&gt;&lt;enabled&gt;true&lt;/enabled&gt;&lt;/releases&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>          &lt;snapshots&gt;&lt;enabled&gt;true&lt;/enabled&gt;&lt;/snapshots&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        &lt;/repository&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      &lt;/repositories&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      &lt;pluginRepositories&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>         &lt;pluginRepository&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                &lt;id&gt;nexus-releases&lt;/id&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                 &lt;url&gt;http://nexus-releases&lt;/url&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                 &lt;releases&gt;&lt;enabled&gt;true&lt;/enabled&gt;&lt;/releases&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                 &lt;snapshots&gt;&lt;enabled&gt;true&lt;/enabled&gt;&lt;/snapshots&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>               &lt;/pluginRepository&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>               &lt;pluginRepository&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                 &lt;id&gt;nexus-snapshots&lt;/id&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                  &lt;url&gt;http://nexus-snapshots&lt;/url&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                &lt;releases&gt;&lt;enabled&gt;true&lt;/enabled&gt;&lt;/releases&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                 &lt;snapshots&gt;&lt;enabled&gt;true&lt;/enabled&gt;&lt;/snapshots&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>             &lt;/pluginRepository&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>         &lt;/pluginRepositories&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    &lt;/profile&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  &lt;/profiles&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  &lt;activeProfiles&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      &lt;activeProfile&gt;nexus&lt;/activeProfile&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  &lt;/activeProfiles&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/settings&gt;  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1015,22 +1697,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D048E8C-0AFB-4C5F-B83B-2BE8573B7BE1}">
-  <dimension ref="A3"/>
+  <dimension ref="A2:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L59" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/maven指南.xlsx
+++ b/maven指南.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4118846A-C1D1-42A0-BA8D-187922EABE27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC758FF-AE65-4309-ADF1-B15DE69A8ABD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nexus安装（Docker）" sheetId="1" r:id="rId1"/>
     <sheet name="配置" sheetId="2" r:id="rId2"/>
     <sheet name="Maven引用" sheetId="3" r:id="rId3"/>
+    <sheet name="pom文件说明" sheetId="4" r:id="rId4"/>
+    <sheet name="常见命令" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>拉取镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +87,118 @@
   </si>
   <si>
     <t>如果有多个mirror则多个镜像都会同时储存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换依赖包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvn package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包跳过单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvn test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvn clean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvn package -Dmaven.test.skip=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包后安装在本地仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvn install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvn tomcat:run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvn package –Pdev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按dev环境参数打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖包的排除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决包的重复引用造成的冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击show dependencies （快捷键Ctrl+ Alt +Shift +Ｕ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击鼠标右键，呼出右键菜单栏，然后点击Actual Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一些红色标记的线，实际上，这些红色标记出来的线所指向的 jar 包，就是项目中冲突的 jar 包．　注意是红色实线，不是红色虚线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如上图所示，想要排除冲突的 jar 包，其方法为：点击冲突的 jar 包，右键呼出菜单栏，点击Exclude选项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +229,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -130,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,15 +259,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1348,6 +1492,1361 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1044068" cy="972317"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE5EFE0-5CB6-4134-B887-50845604336E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="600075"/>
+          <a:ext cx="1044068" cy="972317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;properties&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自定义属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/properties&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3333750" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31C5389-33DA-43A7-82B9-27278EC337A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="590550"/>
+          <a:ext cx="3333750" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;properties&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;spring.version&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.1.8.RELEA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/spring.version&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/properties&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2751651" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846BD4E9-1569-45AB-8074-62426403867D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="2428875"/>
+          <a:ext cx="2751651" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;dependency&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    &lt;groupId&gt;org.springframework&lt;/groupId&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    &lt;artifactId&gt;spring-context&lt;/artifactId&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    &lt;version&gt;5.1.8.RELEASE&lt;/version&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/dependency&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="箭头: 右 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E70EEB-15E4-46F0-8990-6D7CF9E5C60D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="2838450"/>
+          <a:ext cx="1781175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2751651" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64186E1E-FB69-4952-94FA-C760C03AC991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="2352675"/>
+          <a:ext cx="2751651" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;dependency&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    &lt;groupId&gt;org.springframework&lt;/groupId&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    &lt;artifactId&gt;spring-context&lt;/artifactId&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    &lt;version&gt;${</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>spring.version</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>}&lt;/version&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/dependency&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1235851" cy="1661224"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F04CC1-6404-4D1B-93E2-F3882ADFC19F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="4486275"/>
+          <a:ext cx="1235851" cy="1661224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;build&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;plugins&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;plugin&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>具体的插件详情</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>             &lt;/plugin&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/plugins&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/build&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5693033" cy="3746795"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314EDF32-A6CF-4762-ABC3-795EE1FC9C0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="4610100"/>
+          <a:ext cx="5693033" cy="3746795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.tomcat7 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的插件配置</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;plugin&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		&lt;groupId&gt;org.apache.tomcat.maven&lt;/groupId&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		&lt;artifactId&gt;tomcat7-maven-plugin&lt;/artifactId&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		&lt;configuration&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			&lt;port&gt;80&lt;/port&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			&lt;path&gt;/&lt;/path&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		&lt;/configuration&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/plugin&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>项目的编译插件（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>JDK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>版本号）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;plugin&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			&lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			&lt;artifactId&gt;maven-compiler-plugin&lt;/artifactId&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			&lt;version&gt;2.4.3&lt;/version&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			&lt;configuration&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>				&lt;source&gt;1.8&lt;/source&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>				&lt;target&gt;1.8&lt;/target&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			&lt;/configuration&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/plugin&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>341743</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>8936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102362B5-53DB-4A09-BFCE-ABCECF4A7A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9048750"/>
+          <a:ext cx="9257143" cy="4714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5318892" cy="1583254"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0C80B8-DC2C-4966-81CE-D5463DB00744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11877675" y="9505950"/>
+          <a:ext cx="5318892" cy="1583254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scope provided</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>compile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的区别：</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>把这个项目打成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>war</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>包时，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>scope=provided</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>jar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>包，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>不会出现在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>WEB-INFO/lib</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>目录下，而</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>scope=compile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>jar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>包，会放到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>WEB-INFO/lib</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>目录</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>        这样可以避免跟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>servlet-api.jar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>这样的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>jar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>包冲突，但是如果遇到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>idea</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>下默认不提供</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>servlet-api.jar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>时，使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>scope=provided</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>就会缺少对应的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>jar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>包，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>也就是我遇到的问题找不到类</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="mavenProject">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D1F039-05F2-4151-B7C8-D3D055A9FAEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="15744825"/>
+          <a:ext cx="4543425" cy="3448050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="autoSize">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC265E1C-B629-4DFE-8918-2CB528F0FBB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8162925" y="15497175"/>
+          <a:ext cx="5619750" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="conflict">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01D7416-395F-47B4-A94F-C04DBEABFD2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="400050" y="22640925"/>
+          <a:ext cx="9782175" cy="5734050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18" descr="exclude">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F4B277-415C-47DB-90CD-C559792B9810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11677650" y="22679025"/>
+          <a:ext cx="10229850" cy="4752975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1656,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55014EDD-405E-410F-B6CB-E67159A5EDDE}">
   <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1699,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D048E8C-0AFB-4C5F-B83B-2BE8573B7BE1}">
   <dimension ref="A2:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1746,4 +3245,171 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F9803E-CC9A-436B-AB90-82C22F92D522}">
+  <dimension ref="A1:S153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S164" sqref="S164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S153" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE80B6B-FCFE-4F57-9E88-6C858B578329}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/maven指南.xlsx
+++ b/maven指南.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC758FF-AE65-4309-ADF1-B15DE69A8ABD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="nexus安装（Docker）" sheetId="1" r:id="rId1"/>
-    <sheet name="配置" sheetId="2" r:id="rId2"/>
-    <sheet name="Maven引用" sheetId="3" r:id="rId3"/>
+    <sheet name="配置Nenus" sheetId="2" r:id="rId2"/>
+    <sheet name="Maven引用Nexus" sheetId="3" r:id="rId3"/>
     <sheet name="pom文件说明" sheetId="4" r:id="rId4"/>
     <sheet name="常见命令" sheetId="5" r:id="rId5"/>
+    <sheet name="继承" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>拉取镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,12 +201,68 @@
     <t>如上图所示，想要排除冲突的 jar 包，其方法为：点击冲突的 jar 包，右键呼出菜单栏，点击Exclude选项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>父项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加子模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中父节点  -&gt; new -&gt; Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改pom文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点增加module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子节点修改parent属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点增加packaging方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子节点增加打包方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点增加properties方式，则父项目和子项目都可以共用property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父项目pom:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项目pom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以Idea, springboot 为例说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,7 +377,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{A1B6367D-BAEE-42FB-9925-0E0AFA9375BB}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -357,7 +413,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B746C5-3F60-467B-AD1B-4D527276E4AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51B746C5-3F60-467B-AD1B-4D527276E4AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -401,7 +457,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD24CDB-3B60-4C8E-9C0A-6A07A4E9A7E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AD24CDB-3B60-4C8E-9C0A-6A07A4E9A7E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -445,7 +501,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5558282-D3B6-4155-825C-A8A63E449F18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5558282-D3B6-4155-825C-A8A63E449F18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -489,7 +545,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA860C2-F09A-4AFC-8FBE-9E7E91FFCBE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BA860C2-F09A-4AFC-8FBE-9E7E91FFCBE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -544,7 +600,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B4A448-9252-4673-A887-FF2993F79E5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88B4A448-9252-4673-A887-FF2993F79E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -604,7 +660,7 @@
         <xdr:cNvPr id="3073" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1EF2F6-C463-4018-B288-3BE7C89306F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D1EF2F6-C463-4018-B288-3BE7C89306F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -852,7 +908,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9DF99E-7B27-4CF0-ACF4-865740B29F46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A9DF99E-7B27-4CF0-ACF4-865740B29F46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,7 +970,7 @@
         <xdr:cNvPr id="5" name="文本框 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D85CA5-FF17-4BCB-B7D2-D7496FB2894A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01D85CA5-FF17-4BCB-B7D2-D7496FB2894A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1566,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE5EFE0-5CB6-4134-B887-50845604336E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFE5EFE0-5CB6-4134-B887-50845604336E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,6 +1626,10 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:br>
@@ -1596,7 +1656,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31C5389-33DA-43A7-82B9-27278EC337A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B31C5389-33DA-43A7-82B9-27278EC337A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,6 +1745,10 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:br>
@@ -1711,7 +1775,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846BD4E9-1569-45AB-8074-62426403867D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{846BD4E9-1569-45AB-8074-62426403867D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1867,7 @@
         <xdr:cNvPr id="7" name="箭头: 右 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E70EEB-15E4-46F0-8990-6D7CF9E5C60D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49E70EEB-15E4-46F0-8990-6D7CF9E5C60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1922,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64186E1E-FB69-4952-94FA-C760C03AC991}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64186E1E-FB69-4952-94FA-C760C03AC991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +2029,7 @@
         <xdr:cNvPr id="9" name="文本框 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F04CC1-6404-4D1B-93E2-F3882ADFC19F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1F04CC1-6404-4D1B-93E2-F3882ADFC19F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2214,7 @@
         <xdr:cNvPr id="13" name="文本框 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314EDF32-A6CF-4762-ABC3-795EE1FC9C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{314EDF32-A6CF-4762-ABC3-795EE1FC9C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2407,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102362B5-53DB-4A09-BFCE-ABCECF4A7A37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{102362B5-53DB-4A09-BFCE-ABCECF4A7A37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2446,7 @@
         <xdr:cNvPr id="15" name="文本框 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0C80B8-DC2C-4966-81CE-D5463DB00744}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F0C80B8-DC2C-4966-81CE-D5463DB00744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,9 +2522,17 @@
             </a:rPr>
             <a:t>的区别：</a:t>
           </a:r>
-          <a:br>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-          </a:br>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
           </a:br>
@@ -2621,7 +2693,7 @@
         <xdr:cNvPr id="16" name="图片 15" descr="mavenProject">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D1F039-05F2-4151-B7C8-D3D055A9FAEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1D1F039-05F2-4151-B7C8-D3D055A9FAEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2754,7 @@
         <xdr:cNvPr id="17" name="图片 16" descr="autoSize">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC265E1C-B629-4DFE-8918-2CB528F0FBB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC265E1C-B629-4DFE-8918-2CB528F0FBB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2815,7 @@
         <xdr:cNvPr id="18" name="图片 17" descr="conflict">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01D7416-395F-47B4-A94F-C04DBEABFD2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D01D7416-395F-47B4-A94F-C04DBEABFD2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2876,7 @@
         <xdr:cNvPr id="19" name="图片 18" descr="exclude">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F4B277-415C-47DB-90CD-C559792B9810}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43F4B277-415C-47DB-90CD-C559792B9810}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,6 +2919,4023 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="561975"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="514351"/>
+          <a:ext cx="6353175" cy="4347680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>80700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685801" y="6343650"/>
+          <a:ext cx="4895850" cy="1966650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381016</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>141845</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>75486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553216" y="6381750"/>
+          <a:ext cx="5247229" cy="3637836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2299156" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="11801475"/>
+          <a:ext cx="2299156" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;modules&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;module&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>maven-child1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/module&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/modules&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2729658" cy="1125693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="11706225"/>
+          <a:ext cx="2729658" cy="1125693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;parent&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>com.wzy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>maven-parent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;version&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>0.0.1-SNAPSHOT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/version&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;relativePath</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>../pom.xml </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/relativePath&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/parent&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1926233" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="12982575"/>
+          <a:ext cx="1926233" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;packaging&gt;pom&lt;/packaging&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1926233" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="13306425"/>
+          <a:ext cx="1926233" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;packaging&gt;pom&lt;/packaging&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6831486" cy="10253704"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="15659100"/>
+          <a:ext cx="6831486" cy="10253704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;project xmlns="http://maven.apache.org/POM/4.0.0" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         xsi:schemaLocation="http://maven.apache.org/POM/4.0.0 http://maven.apache.org/xsd/maven-4.0.0.xsd"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;modelVersion&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>4.0.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/modelVersion&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;parent&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>org.springframework.boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>spring-boot-starter-parent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;version&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2.1.5.RELEASE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/version&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;relativePath/&gt; &lt;!-- lookup parent from repository --&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/parent&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>com.wzy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>maven-parent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;version&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>0.0.1-SNAPSHOT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/version&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;name&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>maven-parent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/name&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;description&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Demo project for Spring Boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/description&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;packaging&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>pom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/packaging&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;modules&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;module&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>maven-child1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/module&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/modules&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;properties&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;java.version&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>1.8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/java.version&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;commons-io.version&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/commons-io.version&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/properties&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;dependencies&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>org.springframework.boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>spring-boot-starter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;/dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>org.springframework.boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>spring-boot-starter-test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;scope&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/scope&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;/dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>commons-io</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>commons-io</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;version&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>${commons-io.version}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/version&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;/dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/dependencies&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;build&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;plugins&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;plugin&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>org.springframework.boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>spring-boot-maven-plugin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;/plugin&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;/plugins&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/build&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/project&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6831486" cy="9220345"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229850" y="15725775"/>
+          <a:ext cx="6831486" cy="9220345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;project xmlns="http://maven.apache.org/POM/4.0.0" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         xsi:schemaLocation="http://maven.apache.org/POM/4.0.0 http://maven.apache.org/xsd/maven-4.0.0.xsd"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;modelVersion&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>4.0.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/modelVersion&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;parent&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>com.wzy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>maven-parent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;version&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>0.0.1-SNAPSHOT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/version&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;relativePath&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>../pom.xml </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/relativePath&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/parent&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>com.wzy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>maven-child1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;version&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>0.0.1-SNAPSHOT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/version&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;name&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>maven-child1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/name&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;description&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Demo project for Spring Boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/description&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;packaging&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>jar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/packaging&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;properties&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;java.version&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>1.8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/java.version&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/properties&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;dependencies&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>org.springframework.boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>spring-boot-starter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;/dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>org.springframework.boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>spring-boot-starter-test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;scope&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/scope&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;/dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>commons-io</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>commons-io</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;version&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>${commons-io.version}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/version&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;/dependency&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/dependencies&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;build&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;plugins&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;plugin&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                &lt;groupId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>org.springframework.boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/groupId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                &lt;artifactId&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>spring-boot-maven-plugin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/artifactId&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            &lt;/plugin&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;/plugins&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/build&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/project&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3112,31 +7201,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -3144,7 +7233,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" location="welcome" xr:uid="{58C00A5F-AD7A-4B45-B44C-2C43E5D36C24}"/>
+    <hyperlink ref="A8" r:id="rId1" location="welcome"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3152,36 +7241,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55014EDD-405E-410F-B6CB-E67159A5EDDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -3195,46 +7284,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D048E8C-0AFB-4C5F-B83B-2BE8573B7BE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="12:12">
       <c r="L44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="12:12">
       <c r="L58" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="12:12">
       <c r="L59" t="s">
         <v>15</v>
       </c>
@@ -3248,77 +7337,77 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F9803E-CC9A-436B-AB90-82C22F92D522}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S164" sqref="S164"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="F24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="M26" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="M85" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="B86" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="19:19">
       <c r="S153" t="s">
         <v>43</v>
       </c>
@@ -3332,19 +7421,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE80B6B-FCFE-4F57-9E88-6C858B578329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3352,7 +7442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3360,7 +7450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3368,7 +7458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3376,7 +7466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3384,7 +7474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3392,7 +7482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3400,7 +7490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3411,5 +7501,89 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="H80" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="B93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>